--- a/biology/Botanique/Esplanade_de_la_Compas_Raison/Esplanade_de_la_Compas_Raison.xlsx
+++ b/biology/Botanique/Esplanade_de_la_Compas_Raison/Esplanade_de_la_Compas_Raison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'esplanade de la Compas Raison est un espace vert de 4 200 m2 situé sur la Plateau de la Duchère, à proximité de l'église et de la tour Panoramique[Où ?]. Celle ci offre un point de vue sur Vaise, la colline de la Croix Rousse et la colline de Fourvière.
@@ -513,9 +525,11 @@
           <t>L'Aire de la Compas-Raison</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Aire de la Compas-Raison est un jardin philosophique constitué de 46 blocs de granite rose, blanc et polymorphique[1] formant 9 sculptures indépendantes nommées :  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Aire de la Compas-Raison est un jardin philosophique constitué de 46 blocs de granite rose, blanc et polymorphique formant 9 sculptures indépendantes nommées :  
 Pierre de foudre
 Porte solsticiale de Janus
 Fontaine de Zam-Zam
@@ -527,7 +541,7 @@
 Verrou
 Tête couronnée du soleil
 La Lune
-L’œuvre est issue d'une recomposition d'une autre sculpture dite Le Grand Compas[2], qui était située Place de la République en 1976.  Elle est la réalisation des sculpteurs Fabienne et Serge Boyer[3], réalisée entre 1922 et 1996 et inaugurée le 30 novembre 1996[4].
+L’œuvre est issue d'une recomposition d'une autre sculpture dite Le Grand Compas, qui était située Place de la République en 1976.  Elle est la réalisation des sculpteurs Fabienne et Serge Boyer, réalisée entre 1922 et 1996 et inaugurée le 30 novembre 1996.
 </t>
         </is>
       </c>
